--- a/extras/test-form/Counter with stopwatch.xlsx
+++ b/extras/test-form/Counter with stopwatch.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5582" uniqueCount="425">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2758,6 +2758,60 @@
   </si>
   <si>
     <t>There were ${counter} mistakes over ${time_left} ms.</t>
+  </si>
+  <si>
+    <t>custom-counterwithstopwatch</t>
+  </si>
+  <si>
+    <t>custom-counterwithstopwatch(unit="ms")</t>
+  </si>
+  <si>
+    <t>custom-counterwithstopwatch(time-unit="ms")</t>
+  </si>
+  <si>
+    <t>custom-counterwithstopwatch(time-unit="ds")</t>
+  </si>
+  <si>
+    <t>time-units</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Seconds</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>Deciseconds</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>Centiseconds</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Milliseconds</t>
+  </si>
+  <si>
+    <t>select_one time-units</t>
+  </si>
+  <si>
+    <t>selected_time_unit</t>
+  </si>
+  <si>
+    <t>Which time unit would you like to use?</t>
+  </si>
+  <si>
+    <t>custom-counterwithstopwatch(time-unit=${selected_time_unit)</t>
+  </si>
+  <si>
+    <t>custom-counterwithstopwatch(time-unit=${selected_time_unit})</t>
   </si>
 </sst>
 </file>
@@ -6511,16 +6565,16 @@
     </row>
     <row r="12" spans="1:23" ht="306" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>99</v>
+        <v>420</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="F12" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>380</v>
@@ -6534,16 +6588,22 @@
     </row>
     <row r="13" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="F13" t="s">
+        <v>424</v>
+      </c>
+      <c r="K13" t="s">
+        <v>400</v>
+      </c>
+      <c r="N13" t="s">
         <v>380</v>
-      </c>
-      <c r="N13" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="51" x14ac:dyDescent="0.2">
@@ -6551,26 +6611,43 @@
         <v>151</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>380</v>
       </c>
       <c r="N14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="K15" t="s">
+        <v>380</v>
+      </c>
+      <c r="N15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B16" t="s">
         <v>405</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" t="s">
         <v>406</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" t="s">
         <v>395</v>
       </c>
     </row>
@@ -6776,16 +6853,48 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
@@ -6873,7 +6982,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f>TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2003092148</v>
+        <v>2003292226</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>380</v>
